--- a/biology/Zoologie/Chicken_Run/Chicken_Run.xlsx
+++ b/biology/Zoologie/Chicken_Run/Chicken_Run.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chicken Run, ou Poulets en fuite au Québec, est un film d'animation en volume franco-américano-britannique réalisé par Nick Park et Peter Lord sur un scénario signé par Karey Kirkpatrick basé sur une histoire originale de Nick Park et de Peter Lord. Il est sorti en 2000.
 </t>
@@ -513,10 +525,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Présentation générale
-Dans le Yorkshire (Angleterre) dans les années 1950, Ginger, poule pondeuse, cherche constamment à s'évader avec ses congénères du poulailler géré par le couple de fermiers Tweedy, mais ses tentatives sont des échecs. Un jour, un coq américain, Rocky, arrive dans le poulailler par les airs après s'être échappé d'un cirque. S'imaginant qu'il sait voler, Ginger lui demande de donner des cours de vols pour s'évader hors du poulailler. Mais le temps presse car les exploitants changent de stratégie pour plus de rentabilité, abandonnant les œufs pour les tourtes aux poulets et qu'ils viennent d'acheter une nouvelle machine dans ce but. Après avoir échappé à la mort dans cette machine grâce à Rocky, Ginger planifie un nouveau moyen d'évasion qui doit réussir coûte que coûte, car leurs heures sont comptées...
-Synopsis détaillé
-Ginger est une poule pondeuse dans le poulailler d'une ferme en pleine campagne britannique. L'endroit comporte plusieurs baraquements en bois, enclos par un grillage surmonté de fil de fer barbelé. Il est géré par le couple Tweedy, dont la femme est méchante et acariâtre et le mari faible et poltron. Il peut toutefois se montrer d'une grande méchanceté envers ses poules. Ginger y vit avec ses semblables ainsi qu'avec Poulard, vieux coq radoteur et ancien membre de la RAF. Lassée de son absence de liberté, de sa vie monotone et du risque de finir dans l'assiette des propriétaires, l'énergique et volontaire Ginger essaye régulièrement de s'enfuir, mais se fait rattraper à chaque fois. Son objectif est de faire évader toutes ses congénères. Mais M. Tweedy, paranoïaque, commence peu à peu à se douter de quelque chose, même s'il est régulièrement brimé par sa femme qui trouve ridicule que son mari s'imagine que des poules puissent fomenter un quelconque plan d'évasion.
+          <t>Présentation générale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le Yorkshire (Angleterre) dans les années 1950, Ginger, poule pondeuse, cherche constamment à s'évader avec ses congénères du poulailler géré par le couple de fermiers Tweedy, mais ses tentatives sont des échecs. Un jour, un coq américain, Rocky, arrive dans le poulailler par les airs après s'être échappé d'un cirque. S'imaginant qu'il sait voler, Ginger lui demande de donner des cours de vols pour s'évader hors du poulailler. Mais le temps presse car les exploitants changent de stratégie pour plus de rentabilité, abandonnant les œufs pour les tourtes aux poulets et qu'ils viennent d'acheter une nouvelle machine dans ce but. Après avoir échappé à la mort dans cette machine grâce à Rocky, Ginger planifie un nouveau moyen d'évasion qui doit réussir coûte que coûte, car leurs heures sont comptées...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chicken_Run</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chicken_Run</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synopsis détaillé</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ginger est une poule pondeuse dans le poulailler d'une ferme en pleine campagne britannique. L'endroit comporte plusieurs baraquements en bois, enclos par un grillage surmonté de fil de fer barbelé. Il est géré par le couple Tweedy, dont la femme est méchante et acariâtre et le mari faible et poltron. Il peut toutefois se montrer d'une grande méchanceté envers ses poules. Ginger y vit avec ses semblables ainsi qu'avec Poulard, vieux coq radoteur et ancien membre de la RAF. Lassée de son absence de liberté, de sa vie monotone et du risque de finir dans l'assiette des propriétaires, l'énergique et volontaire Ginger essaye régulièrement de s'enfuir, mais se fait rattraper à chaque fois. Son objectif est de faire évader toutes ses congénères. Mais M. Tweedy, paranoïaque, commence peu à peu à se douter de quelque chose, même s'il est régulièrement brimé par sa femme qui trouve ridicule que son mari s'imagine que des poules puissent fomenter un quelconque plan d'évasion.
 Alors que l'une de ses congénères, Edwige, est abattue par les Tweedy car elle ne pondait plus d'œufs, la détermination d'évasion de Ginger atteint son paroxysme. Mais la solution de son nouveau plan d'évasion dévoilée ne fait pas l'unanimité, tandis qu'elle rencontre des soucis de paiement avec les rats Ric et Rac qui lui fournissent les matériaux.
 C'est à ce moment-là qu'elle fait connaissance avec Rocky, un coq américain hâbleur, qui arrive dans le poulailler par la voie des airs, mais se blesse à une aile à l'atterrissage. Alors qu'il s’apprête à repartir, il découvre que le cirque d'où il s'est échappé le recherche et demande à être caché. Mais Ginger et les poules s'imaginent qu'il sait voler, et passent un marché avec lui : s'il leur dispense des cours de vol, elles le cachent pour qu'il ne soit pas renvoyé dans le cirque. Ainsi, Rocky échappe aux recherches du cirque et aux Tweedy.
 Au cours des jours suivants, Rocky essaie de donner des cours de vol aux poules, mais les résultats ne sont pas forcément à la hauteur de leurs attentes, sous les regards amusés des rats. Mais le temps presse car M. et Mme Tweedy décident d'abandonner la vente des œufs, peu rentable, et achètent une machine capable de préparer de façon industrielle des tourtes au poulet. Le lendemain, après l'arrivée de la machine, les Tweedy se rendent dans le poulailler pour mesurer le tour de taille de la poule Babette, la plus grasse, alors que celle-ci s'attendait à être abattue à son tour, n'ayant rien pondu depuis quelques jours. Voulant les poules aussi grasses que Babette, les Tweedy doublent leurs rations. Alors que les poules se précipitent sur la nourriture, Ginger renverse la mangeoire pour leur expliquer qu'on les engraisse pour les tuer ensuite, tout en ignorant encore à quoi elle serviront.
@@ -528,31 +580,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Chicken_Run</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chicken_Run</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chicken_Run</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chicken_Run</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Titre original et français : Chicken Run
 Titre québécois : Poulets en fuite
@@ -563,7 +617,7 @@
 Supervision des effets visuels : Loyd Price
 Production : Peter Lord, Nick Park et David Sproxton
 Sociétés de production : Aardman Animations, DreamWorks Pictures et Pathé Distribution
-Sociétés de distribution : TVA International et Divertissement Paramount Pictures Canada[1]
+Sociétés de distribution : TVA International et Divertissement Paramount Pictures Canada
 Budget : 45 000 000 $
 Pays de production :  Royaume-Uni,  États-Unis et  France
 Langue originale : anglais
@@ -580,34 +634,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Chicken_Run</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chicken_Run</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chicken_Run</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chicken_Run</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Voix originales
-Julia Sawalha : Ginger
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Voix originales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Julia Sawalha : Ginger
 Mel Gibson : Rocky
 Imelda Staunton : Bunty
 Timothy Spall : Nick
@@ -621,43 +680,6 @@
 John Sharian : le dresseur du cirque
 Carole Jeghers : Vache bleue
 Légende : Doublage cinéma/vidéo + Doublage télévision
-Voix françaises
-Note : Le film a eu deux doublages français en raison de probables conflits entre les distributeurs United International Pictures et Pathé[réf. nécessaire].
-Source des voix françaises : Voxofilm[2], Comparaison[3]
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Chicken_Run</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chicken_Run</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Genèse
-En 1995, l'idée de Chicken Run voit le jour quand les réalisateurs Nick Park et Peter Lord imaginent une histoire se déroulant dans un poulailler, et mettant en scène des poules tentant de fuir pour échapper à leur destin funeste. À travers cette comédie, les réalisateurs cherchent à créer une parodie du film culte La Grande Évasion de John Sturges, sorti en 1963. Après avoir présenté le projet à DreamWorks Animation, l'équipe passe deux ans et demi à concevoir les personnages, le scenario et à créer le storyboard[4].
-Réalisation
-Le tournage du film dure en tout 18 mois, avec une équipe d'environ 250 personnes. Les têtes et les mains des personnages sont faits de pâte à modeler. Les corps sont sculptés dans de la pâte à modeler qui est ensuite moulée pour en faire du silicone afin de pouvoir appliquer de la peinture plus simplement. À l'intérieur, les personnages sont faits de solides squelettes en acier[5].
 </t>
         </is>
       </c>
@@ -683,14 +705,20 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Accueil</t>
+          <t>Distribution</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Critiques
-Sur le site Rotten Tomatoes, le film a obtenu un taux d'approbation de 97 % et une note moyenne de 8,1⁄10 basée sur 170 commentaires. Le site s'accorde pour dire que « Chicken Run a tout le charme de Wallace &amp; Gromit de Nick Park et peut plaire à tout le monde. Le doublage est fantastique, le slapstick est brillant et les séquences d'action sont spectaculaires ». Le film tient également un score de 88⁄100, basé sur 34 critiques sur Metacritic, indiquant une « acclamation universelle ». Les spectateurs interrogés par CinemaScore ont attribué au film une note de « A ».
-Box-office</t>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Note : Le film a eu deux doublages français en raison de probables conflits entre les distributeurs United International Pictures et Pathé[réf. nécessaire].
+Source des voix françaises : Voxofilm, Comparaison
+</t>
         </is>
       </c>
     </row>
@@ -715,12 +743,125 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Genèse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1995, l'idée de Chicken Run voit le jour quand les réalisateurs Nick Park et Peter Lord imaginent une histoire se déroulant dans un poulailler, et mettant en scène des poules tentant de fuir pour échapper à leur destin funeste. À travers cette comédie, les réalisateurs cherchent à créer une parodie du film culte La Grande Évasion de John Sturges, sorti en 1963. Après avoir présenté le projet à DreamWorks Animation, l'équipe passe deux ans et demi à concevoir les personnages, le scenario et à créer le storyboard.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chicken_Run</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chicken_Run</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Réalisation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage du film dure en tout 18 mois, avec une équipe d'environ 250 personnes. Les têtes et les mains des personnages sont faits de pâte à modeler. Les corps sont sculptés dans de la pâte à modeler qui est ensuite moulée pour en faire du silicone afin de pouvoir appliquer de la peinture plus simplement. À l'intérieur, les personnages sont faits de solides squelettes en acier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chicken_Run</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chicken_Run</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Critiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur le site Rotten Tomatoes, le film a obtenu un taux d'approbation de 97 % et une note moyenne de 8,1⁄10 basée sur 170 commentaires. Le site s'accorde pour dire que « Chicken Run a tout le charme de Wallace &amp; Gromit de Nick Park et peut plaire à tout le monde. Le doublage est fantastique, le slapstick est brillant et les séquences d'action sont spectaculaires ». Le film tient également un score de 88⁄100, basé sur 34 critiques sur Metacritic, indiquant une « acclamation universelle ». Les spectateurs interrogés par CinemaScore ont attribué au film une note de « A ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chicken_Run</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chicken_Run</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Anecdotes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est ce film et sa technique d'animation qui ont inspiré le concept et les personnages des Têtes à claques créées par Michel Beaudet[6].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est ce film et sa technique d'animation qui ont inspiré le concept et les personnages des Têtes à claques créées par Michel Beaudet.
 On y trouve de très nombreuses références au film La Grande Évasion, notamment en ce qui concerne les baraques qui sont similaires, le tunnel qui est clairement le même, le fait que Ginger fasse rebondir une balle pour passer le temps au cachot, la musique, etc., mais aussi à d'autres films du même genre tels que Les Indomptables de Colditz et Stalag 17.
 L'un des personnages s’appelle Mac Bec, probable référence au personnage de Mac Beth, le personnage principal de la pièce du même nom de Shakespeare.
 Le film a aussi trouvé son inspiration dans La ferme des animaux de George Orwell.
@@ -729,31 +870,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Chicken_Run</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chicken_Run</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Chicken_Run</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chicken_Run</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Suite</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">La suite, Chicken Run : La Menace nuggets, est diffusée sur Netflix fin 2023. 
 </t>
